--- a/biology/Botanique/Buffum/Buffum.xlsx
+++ b/biology/Botanique/Buffum/Buffum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ’Buffum est une variété de poire[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ’Buffum est une variété de poire. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Poire de Buffum.</t>
         </is>
@@ -541,10 +555,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété provient de Rhode-Island aux États-Unis d'Amérique[2].
-André Leroy nous dit qu'elle fut semée par David Buffum de Warren, comté de Bristol, avant 1834, et expédiée en France en mars 1852[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété provient de Rhode-Island aux États-Unis d'Amérique.
+André Leroy nous dit qu'elle fut semée par David Buffum de Warren, comté de Bristol, avant 1834, et expédiée en France en mars 1852.
 Son nom a été supposé venir de sa couleur fauve, du nom anglais « buff », signifiant chamois mais cette hypothèse a été démentie depuis.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bois fort, aux rameaux excessivement  nombreux ayant des lenticelles démesurément larges, extrêmement abondantes[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bois fort, aux rameaux excessivement  nombreux ayant des lenticelles démesurément larges, extrêmement abondantes,.
 </t>
         </is>
       </c>
@@ -605,12 +623,14 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">De grosseur moyenne et forme ovoïde, légèrement ventrue, son pédoncule est court, arqué, relativement bien « nourri », inséré dans un évasement assez prononcé.
 Chair blanchâtre, fine, fondante, non pierreuse.
 La peau est d'un beau jaune clair, taché de brun.
-Maturité vers la mi-septembre, fruit de première qualité[4].
+Maturité vers la mi-septembre, fruit de première qualité.
 </t>
         </is>
       </c>
